--- a/Recycling/Met_rec/metrec_Min_full_Min.xlsx
+++ b/Recycling/Met_rec/metrec_Min_full_Min.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -1587,7 +1587,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>67537.75683225015</v>
+        <v>67537.75683225013</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2049,7 +2049,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>186790.5523943971</v>
+        <v>186790.5523943972</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2313,7 +2313,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>251326.2248433976</v>
+        <v>251326.2248433977</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1011745.887999736</v>
+        <v>1011745.887999737</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3501,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3900069.184158058</v>
+        <v>3900069.184158057</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3963,7 +3963,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>4192831.202238688</v>
+        <v>4192831.202238687</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4095,7 +4095,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3479594.426315442</v>
+        <v>3479594.426315441</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5283,7 +5283,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3907495.461863715</v>
+        <v>3907495.461863714</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5613,7 +5613,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3528942.520219187</v>
+        <v>3528942.520219186</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5943,7 +5943,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3161665.033672117</v>
+        <v>3161665.033672118</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6603,7 +6603,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>4104757.333033284</v>
+        <v>4104757.333033283</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6735,7 +6735,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>4170918.044394512</v>
+        <v>4170918.044394513</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Min_full_Min.xlsx
+++ b/Recycling/Met_rec/metrec_Min_full_Min.xlsx
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7731.552689598361</v>
+        <v>7731.55268959836</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>85051.00650577999</v>
+        <v>85051.00650578001</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3804,7 +3804,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>87875.32113874899</v>
+        <v>87875.32113874897</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4140,7 +4140,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>82620.25998969878</v>
+        <v>82620.25998969877</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4256,7 +4256,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>344293.4958811314</v>
+        <v>344293.4958811315</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5116,7 +5116,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>444080.4477475121</v>
+        <v>444080.447747512</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5932,7 +5932,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>1122804.914233672</v>
+        <v>1122804.914233673</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6252,7 +6252,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2178671.466042867</v>
+        <v>2178671.466042868</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6996,7 +6996,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2557404.620908844</v>
+        <v>2557404.620908845</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7316,7 +7316,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4592211.339428076</v>
+        <v>4592211.339428075</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7520,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5056238.112674201</v>
+        <v>5056238.1126742</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7608,7 +7608,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>4047649.588963211</v>
+        <v>4047649.58896321</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8336,7 +8336,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>6052257.37418597</v>
+        <v>6052257.374185969</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8540,7 +8540,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>6480388.711702627</v>
+        <v>6480388.711702626</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8744,7 +8744,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7148707.92556092</v>
+        <v>7148707.925560921</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8832,7 +8832,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>5671804.997673968</v>
+        <v>5671804.997673967</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9036,7 +9036,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>6091482.055869827</v>
+        <v>6091482.055869826</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9152,7 +9152,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7644397.997406049</v>
+        <v>7644397.997406051</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9356,7 +9356,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7487615.443566527</v>
+        <v>7487615.443566529</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9444,7 +9444,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>5873020.302821724</v>
+        <v>5873020.302821725</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9764,7 +9764,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7194670.611324355</v>
+        <v>7194670.611324356</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10260,7 +10260,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>5381539.111589088</v>
+        <v>5381539.111589087</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10420,7 +10420,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>23517914.10717843</v>
+        <v>23517914.10717844</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11892,7 +11892,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>4363840.816928873</v>
+        <v>4363840.816928872</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -11964,7 +11964,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>11281364.44732673</v>
+        <v>11281364.44732674</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12416,7 +12416,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>6452263.387181692</v>
+        <v>6452263.387181693</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12824,7 +12824,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7254228.362305952</v>
+        <v>7254228.362305951</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13028,7 +13028,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7548572.270360298</v>
+        <v>7548572.270360297</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13320,7 +13320,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>5746906.037865015</v>
+        <v>5746906.037865013</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13480,7 +13480,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>34097628.21298856</v>
+        <v>34097628.21298855</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13684,7 +13684,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>35008818.42010264</v>
+        <v>35008818.42010263</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14048,7 +14048,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>8136581.118721771</v>
+        <v>8136581.11872177</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14092,7 +14092,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>36931067.04963734</v>
+        <v>36931067.04963733</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14952,7 +14952,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>5715125.88802906</v>
+        <v>5715125.888029059</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15272,7 +15272,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7436238.432925576</v>
+        <v>7436238.432925574</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -15316,7 +15316,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>40725456.13976929</v>
+        <v>40725456.13976928</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -15520,7 +15520,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>41711306.91529034</v>
+        <v>41711306.91529035</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -15564,7 +15564,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>5470883.763597059</v>
+        <v>5470883.763597058</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15884,7 +15884,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7723207.159288276</v>
+        <v>7723207.159288274</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -16380,7 +16380,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>5971574.68710693</v>
+        <v>5971574.687106929</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -17152,7 +17152,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>48705974.08527492</v>
+        <v>48705974.08527493</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -17516,7 +17516,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>9189257.058881398</v>
+        <v>9189257.0588814</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -18332,7 +18332,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>9184296.298989052</v>
+        <v>9184296.29898905</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -18536,7 +18536,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>8983662.001952969</v>
+        <v>8983662.00195297</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19236,7 +19236,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>6146171.817233857</v>
+        <v>6146171.817233858</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -19352,7 +19352,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>8592876.566866279</v>
+        <v>8592876.566866277</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19556,7 +19556,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>8668092.051768206</v>
+        <v>8668092.051768208</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19600,7 +19600,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>58516901.43606126</v>
+        <v>58516901.43606127</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19644,7 +19644,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>6195686.749463592</v>
+        <v>6195686.749463591</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -19760,7 +19760,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>8768169.529350085</v>
+        <v>8768169.529350087</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20008,7 +20008,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>60521045.96008124</v>
+        <v>60521045.96008123</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20168,7 +20168,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>9140597.017337324</v>
+        <v>9140597.017337326</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20620,7 +20620,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>63565651.66722705</v>
+        <v>63565651.66722704</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -21028,7 +21028,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>65513203.5404687</v>
+        <v>65513203.54046872</v>
       </c>
     </row>
     <row r="13" spans="1:4">
